--- a/biology/Botanique/Astrochlaena/Astrochlaena.xlsx
+++ b/biology/Botanique/Astrochlaena/Astrochlaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astripomoea est un genre de plantes de la famille des Convolvulaceae.
 Le nom provient des poils en formes d’étoile présents sur la plante.
@@ -512,9 +524,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 septembre 2019) :
 Astripomoea cephalantha (Hallier f.) Verdc. (1958)
 Astripomoea delamereana (Rendle) Verdc. (1958)
 Astripomoea grantii (Rendle) Verdc. (1958)
@@ -534,12 +548,12 @@
 Astripomoea procera Thulin (2005)
 Astripomoea rotundata (Pilg.) A.Meeuse (1957 publ. 1958)
 Astripomoea tubiflora (Hallier f.) Verdc. (1958)
-Selon The Plant List            (24 septembre 2019)[3] :
+Selon The Plant List            (24 septembre 2019) :
 Astripomoea hyoscyamoides (Vatke) Verdc.
 Astripomoea lachnosperma (Choisy) A. Meeuse
 Astripomoea malvacea (Klotzsch) A. Meeuse
 Astripomoea rotundata A. Meeuse
-Selon Tropicos                                           (24 septembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Astripomoea cephalantha (Hallier f.) Verdc.
 Astripomoea delamereana Verdc.
 Astripomoea grantii Verdc.
